--- a/notebooks/RPGRIP1/input/Table_2_Beryozkin.xlsx
+++ b/notebooks/RPGRIP1/input/Table_2_Beryozkin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/RPGRIP1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39BD176-FA33-9C48-A9B3-A3911019406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AA1023-4908-0A4F-81AE-74A79859D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2500" windowWidth="36520" windowHeight="20240" xr2:uid="{5DD6B3E3-C83C-4B8A-9C86-DA99E737D14F}"/>
+    <workbookView xWindow="1740" yWindow="520" windowWidth="36520" windowHeight="20240" xr2:uid="{5DD6B3E3-C83C-4B8A-9C86-DA99E737D14F}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="511">
   <si>
     <t>Diagnosis</t>
   </si>
@@ -216,9 +216,6 @@
     <t>p.R123X</t>
   </si>
   <si>
-    <t>c.3618-5_c.3618-1del</t>
-  </si>
-  <si>
     <t>A Novel Recessive RPGRIP1 Mutation Causing Leber Congenital Amaurosis</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Sylvain Hanein</t>
   </si>
   <si>
-    <t>c.510delT</t>
-  </si>
-  <si>
     <t>p.Tyr170fsX189</t>
   </si>
   <si>
@@ -390,9 +384,6 @@
     <t>QT312</t>
   </si>
   <si>
-    <t>c.799C &gt; T</t>
-  </si>
-  <si>
     <t>p.Arg267*</t>
   </si>
   <si>
@@ -405,9 +396,6 @@
     <t>Katsuhiro Hosono</t>
   </si>
   <si>
-    <t>c.1687C &gt; T</t>
-  </si>
-  <si>
     <t>p.Arg563*</t>
   </si>
   <si>
@@ -462,9 +450,6 @@
     <t>p.Glu299fs*21</t>
   </si>
   <si>
-    <t>c.2367 + 23del</t>
-  </si>
-  <si>
     <t>Fi15/12</t>
   </si>
   <si>
@@ -714,9 +699,6 @@
     <t>p.K435*X</t>
   </si>
   <si>
-    <t>c.801-25_c.843del</t>
-  </si>
-  <si>
     <t>Targeted next generation sequencing reveals genetic defects underlying inherited retinal disease in Iranian families</t>
   </si>
   <si>
@@ -768,9 +750,6 @@
     <t>c.1467+1G&gt;T</t>
   </si>
   <si>
-    <t>c.2710 + 374_2895 + 78del</t>
-  </si>
-  <si>
     <t>Exon17 deletion</t>
   </si>
   <si>
@@ -1149,9 +1128,6 @@
     <t>p.Val1211fs</t>
   </si>
   <si>
-    <t>c.2576-2577insTT</t>
-  </si>
-  <si>
     <t>p.Ser858fsX865</t>
   </si>
   <si>
@@ -1236,9 +1212,6 @@
     <t>Takahide Suzuki</t>
   </si>
   <si>
-    <t>c.2710+372_2895+76del1339</t>
-  </si>
-  <si>
     <t>reduced</t>
   </si>
   <si>
@@ -1488,9 +1461,6 @@
     <t>MOL0358_1</t>
   </si>
   <si>
-    <t>c.3663_6del4</t>
-  </si>
-  <si>
     <t>p.K1221Nfs*22</t>
   </si>
   <si>
@@ -1515,9 +1485,6 @@
     <t>237–523</t>
   </si>
   <si>
-    <t>c.3793ins4</t>
-  </si>
-  <si>
     <t>p.Val1265Glyfs*19</t>
   </si>
   <si>
@@ -1570,6 +1537,36 @@
   </si>
   <si>
     <t>Intelectual disability/ Neurodevelopmental delay</t>
+  </si>
+  <si>
+    <t>c.2367+23del</t>
+  </si>
+  <si>
+    <t>c.2710+374_2895+78del</t>
+  </si>
+  <si>
+    <t>c.2710+372_2895+76del</t>
+  </si>
+  <si>
+    <t>c.3618-1_3621del</t>
+  </si>
+  <si>
+    <t>c.510delC</t>
+  </si>
+  <si>
+    <t>c.1687C&gt;T</t>
+  </si>
+  <si>
+    <t>c.3663_3666del</t>
+  </si>
+  <si>
+    <t>c.3793_3794insGAAA</t>
+  </si>
+  <si>
+    <t>c.801-25_843del</t>
+  </si>
+  <si>
+    <t>c.2576_2577insTT</t>
   </si>
 </sst>
 </file>
@@ -2028,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E8EE58-8632-4CD9-853F-22D41F15265F}">
   <dimension ref="A1:AA232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA216" sqref="AA216"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2048,31 +2045,31 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -2172,7 +2169,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>25</v>
@@ -2407,7 +2404,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>48</v>
@@ -2436,7 +2433,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>51</v>
@@ -2465,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>51</v>
@@ -2494,7 +2491,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>51</v>
@@ -2558,10 +2555,10 @@
         <v>59</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>60</v>
+        <v>504</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>18</v>
@@ -2572,22 +2569,22 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>18</v>
@@ -2622,16 +2619,16 @@
         <v>56</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>18</v>
@@ -2651,16 +2648,16 @@
         <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>18</v>
@@ -2671,22 +2668,22 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>74</v>
+        <v>505</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>18</v>
@@ -2697,25 +2694,25 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>18</v>
@@ -2726,22 +2723,22 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>18</v>
@@ -2773,22 +2770,22 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>18</v>
@@ -2826,16 +2823,16 @@
         <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>18</v>
@@ -2855,16 +2852,16 @@
         <v>56</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>18</v>
@@ -2884,16 +2881,16 @@
         <v>56</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>18</v>
@@ -2904,25 +2901,25 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F25" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>18</v>
@@ -2946,10 +2943,10 @@
         <v>0.5</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V25" s="1">
         <v>0.5</v>
@@ -2957,25 +2954,25 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>18</v>
@@ -2986,22 +2983,22 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="G27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>18</v>
@@ -3012,25 +3009,25 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>18</v>
@@ -3054,25 +3051,25 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="E29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>18</v>
@@ -3098,25 +3095,25 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>18</v>
@@ -3142,25 +3139,25 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>18</v>
@@ -3186,28 +3183,28 @@
     </row>
     <row r="32" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="D32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="E32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="F32" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="G32" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>19</v>
@@ -3233,25 +3230,25 @@
     </row>
     <row r="33" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D33" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="E33" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="G33" s="15" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>18</v>
@@ -3280,25 +3277,25 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>18</v>
@@ -3309,25 +3306,25 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>18</v>
@@ -3347,22 +3344,22 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>18</v>
@@ -3373,22 +3370,22 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>18</v>
@@ -3408,22 +3405,22 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>18</v>
@@ -3447,22 +3444,22 @@
         <v>17</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>18</v>
@@ -3499,25 +3496,25 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="F40" s="9" t="s">
-        <v>142</v>
+        <v>501</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>18</v>
@@ -3534,25 +3531,25 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>142</v>
+        <v>501</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>18</v>
@@ -3563,25 +3560,25 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>18</v>
@@ -3601,25 +3598,25 @@
         <v>61312</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>19</v>
@@ -3648,22 +3645,22 @@
         <v>3676</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>18</v>
@@ -3695,22 +3692,22 @@
         <v>3677</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>18</v>
@@ -3739,25 +3736,25 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>18</v>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>28</v>
@@ -3783,16 +3780,16 @@
         <v>29</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>18</v>
@@ -3803,7 +3800,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>28</v>
@@ -3812,16 +3809,16 @@
         <v>29</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>18</v>
@@ -3832,7 +3829,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>28</v>
@@ -3841,16 +3838,16 @@
         <v>29</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>18</v>
@@ -3864,22 +3861,22 @@
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>18</v>
@@ -3908,22 +3905,22 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>18</v>
@@ -3955,22 +3952,22 @@
         <v>4</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>18</v>
@@ -4005,22 +4002,22 @@
         <v>10</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>18</v>
@@ -4055,22 +4052,22 @@
         <v>13</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>18</v>
@@ -4105,22 +4102,22 @@
         <v>14</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>18</v>
@@ -4152,22 +4149,22 @@
         <v>15</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>18</v>
@@ -4199,22 +4196,22 @@
         <v>16</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>18</v>
@@ -4246,22 +4243,22 @@
         <v>18</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>18</v>
@@ -4293,22 +4290,22 @@
         <v>19</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>18</v>
@@ -4337,22 +4334,22 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>18</v>
@@ -4381,25 +4378,25 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>18</v>
@@ -4413,22 +4410,22 @@
         <v>3</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>18</v>
@@ -4463,22 +4460,22 @@
         <v>4</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>18</v>
@@ -4513,22 +4510,22 @@
         <v>6</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>18</v>
@@ -4560,22 +4557,22 @@
         <v>8</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>18</v>
@@ -4607,22 +4604,22 @@
         <v>9</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>18</v>
@@ -4651,22 +4648,22 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>18</v>
@@ -4689,22 +4686,22 @@
         <v>50</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>18</v>
@@ -4738,22 +4735,22 @@
         <v>90</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>18</v>
@@ -4787,22 +4784,22 @@
         <v>111</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>18</v>
@@ -4836,22 +4833,22 @@
         <v>115</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>18</v>
@@ -4882,25 +4879,25 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>18</v>
@@ -4929,16 +4926,16 @@
         <v>45</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>18</v>
@@ -4956,16 +4953,16 @@
         <v>34</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>18</v>
@@ -4997,22 +4994,22 @@
         <v>34</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>18</v>
@@ -5035,25 +5032,25 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>18</v>
@@ -5082,25 +5079,25 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="G77" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>18</v>
@@ -5137,22 +5134,22 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>18</v>
@@ -5175,22 +5172,22 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>18</v>
@@ -5213,22 +5210,22 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>18</v>
@@ -5251,22 +5248,22 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>18</v>
@@ -5289,22 +5286,22 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>18</v>
@@ -5327,22 +5324,22 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>18</v>
@@ -5365,22 +5362,22 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>18</v>
@@ -5403,25 +5400,25 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>18</v>
@@ -5447,25 +5444,25 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>18</v>
@@ -5488,25 +5485,25 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>18</v>
@@ -5529,25 +5526,25 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>18</v>
@@ -5573,25 +5570,25 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>18</v>
@@ -5621,22 +5618,22 @@
     <row r="90" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>18</v>
@@ -5679,25 +5676,25 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>18</v>
@@ -5730,25 +5727,25 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>18</v>
@@ -5787,16 +5784,16 @@
         <v>56</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>18</v>
@@ -5813,16 +5810,16 @@
         <v>56</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>18</v>
@@ -5842,16 +5839,16 @@
         <v>56</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>18</v>
@@ -5865,22 +5862,22 @@
         <v>15</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>226</v>
+        <v>509</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>18</v>
@@ -5918,25 +5915,25 @@
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>19</v>
@@ -5963,22 +5960,22 @@
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>18</v>
@@ -6008,22 +6005,22 @@
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>18</v>
@@ -6052,25 +6049,25 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>18</v>
@@ -6091,10 +6088,10 @@
         <v>1</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="V100" s="1">
         <v>2</v>
@@ -6102,25 +6099,25 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>18</v>
@@ -6141,10 +6138,10 @@
         <v>1</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="V101" s="1">
         <v>2</v>
@@ -6152,22 +6149,22 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>18</v>
@@ -6187,25 +6184,25 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>244</v>
+        <v>502</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>18</v>
@@ -6225,25 +6222,25 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>244</v>
+        <v>502</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>18</v>
@@ -6277,7 +6274,7 @@
         <v>15</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>20</v>
@@ -6288,7 +6285,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>46</v>
@@ -6297,16 +6294,16 @@
         <v>47</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>18</v>
@@ -6317,7 +6314,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>15</v>
@@ -6326,19 +6323,19 @@
         <v>16</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>19</v>
@@ -6377,25 +6374,25 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>18</v>
@@ -6406,25 +6403,25 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>18</v>
@@ -6435,22 +6432,22 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B109" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>18</v>
@@ -6471,25 +6468,25 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>18</v>
@@ -6512,28 +6509,28 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>19</v>
@@ -6568,28 +6565,28 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>19</v>
@@ -6628,16 +6625,16 @@
         <v>34</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>18</v>
@@ -6666,22 +6663,22 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B114" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>18</v>
@@ -6692,22 +6689,22 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B115" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>18</v>
@@ -6721,22 +6718,22 @@
         <v>13</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="G116" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>18</v>
@@ -6747,22 +6744,22 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>18</v>
@@ -6783,22 +6780,22 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>18</v>
@@ -6821,22 +6818,22 @@
       <c r="A119" s="8"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I119" t="s">
         <v>19</v>
@@ -6863,25 +6860,25 @@
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>19</v>
@@ -6907,25 +6904,25 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>18</v>
@@ -6953,10 +6950,10 @@
         <v>29</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="V121" s="1">
         <v>6</v>
@@ -6964,7 +6961,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>28</v>
@@ -6973,16 +6970,16 @@
         <v>29</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>18</v>
@@ -6993,7 +6990,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>28</v>
@@ -7002,16 +6999,16 @@
         <v>29</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>18</v>
@@ -7022,25 +7019,25 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>18</v>
@@ -7061,10 +7058,10 @@
         <v>7.5</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V124" s="1">
         <v>7.5</v>
@@ -7075,22 +7072,22 @@
         <v>2</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>18</v>
@@ -7122,22 +7119,22 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B126" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H126" s="9" t="s">
         <v>18</v>
@@ -7172,22 +7169,22 @@
         <v>1</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H127" s="9" t="s">
         <v>18</v>
@@ -7222,22 +7219,22 @@
         <v>2</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>18</v>
@@ -7269,25 +7266,25 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>18</v>
@@ -7298,25 +7295,25 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>32</v>
@@ -7348,25 +7345,25 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>32</v>
@@ -7398,28 +7395,28 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>19</v>
@@ -7434,7 +7431,7 @@
         <v>21</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="U132" s="1">
         <v>0</v>
@@ -7445,28 +7442,28 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>19</v>
@@ -7484,7 +7481,7 @@
         <v>33</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="U133" s="1">
         <v>0</v>
@@ -7495,25 +7492,25 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>18</v>
@@ -7563,16 +7560,16 @@
         <v>47</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>18</v>
@@ -7583,25 +7580,25 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>18</v>
@@ -7619,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P136" s="1">
         <v>0.15</v>
@@ -7628,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="V136" s="1">
         <v>9</v>
@@ -7639,25 +7636,25 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>18</v>
@@ -7681,10 +7678,10 @@
         <v>5</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="V137" s="1">
         <v>5</v>
@@ -7692,25 +7689,25 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>18</v>
@@ -7727,25 +7724,25 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>18</v>
@@ -7759,22 +7756,22 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>18</v>
@@ -7794,22 +7791,22 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B141" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>18</v>
@@ -7820,22 +7817,22 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B142" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>18</v>
@@ -7867,22 +7864,22 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B143" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>18</v>
@@ -7893,25 +7890,25 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B144" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>19</v>
@@ -7919,22 +7916,22 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B145" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>18</v>
@@ -7948,22 +7945,22 @@
         <v>14</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>18</v>
@@ -8000,22 +7997,22 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B147" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>18</v>
@@ -8036,28 +8033,28 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>19</v>
@@ -8065,28 +8062,28 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>19</v>
@@ -8094,28 +8091,28 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>19</v>
@@ -8123,28 +8120,28 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>19</v>
@@ -8152,28 +8149,28 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>19</v>
@@ -8181,28 +8178,28 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>19</v>
@@ -8210,28 +8207,28 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>19</v>
@@ -8239,28 +8236,28 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>19</v>
@@ -8268,25 +8265,25 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>18</v>
@@ -8312,25 +8309,25 @@
     </row>
     <row r="157" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>18</v>
@@ -8369,25 +8366,25 @@
     </row>
     <row r="158" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H158" s="9" t="s">
         <v>18</v>
@@ -8426,25 +8423,25 @@
     </row>
     <row r="159" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H159" s="9" t="s">
         <v>18</v>
@@ -8481,22 +8478,22 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B160" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="D160" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H160" s="9" t="s">
         <v>18</v>
@@ -8507,22 +8504,22 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B161" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H161" s="9" t="s">
         <v>32</v>
@@ -8533,25 +8530,25 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H162" s="9" t="s">
         <v>18</v>
@@ -8562,22 +8559,22 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B163" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C163" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="D163" s="9" t="s">
-        <v>371</v>
+        <v>510</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>371</v>
+        <v>510</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>18</v>
@@ -8588,28 +8585,28 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>19</v>
@@ -8630,10 +8627,10 @@
         <v>10</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="U164" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="V164" s="1">
         <v>3.6</v>
@@ -8650,16 +8647,16 @@
         <v>56</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>18</v>
@@ -8671,22 +8668,22 @@
     <row r="166" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>18</v>
@@ -8719,10 +8716,10 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U166" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="V166" s="1">
         <v>10</v>
@@ -8736,22 +8733,22 @@
     <row r="167" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H167" s="9" t="s">
         <v>18</v>
@@ -8782,10 +8779,10 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U167" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="V167" s="1">
         <v>7</v>
@@ -8801,22 +8798,22 @@
         <v>35</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>18</v>
@@ -8847,22 +8844,22 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B169" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>18</v>
@@ -8882,28 +8879,28 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>19</v>
@@ -8925,10 +8922,10 @@
         <v>47</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="U170" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="V170" s="1">
         <v>27</v>
@@ -8936,28 +8933,28 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>19</v>
@@ -8979,10 +8976,10 @@
         <v>38</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="U171" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
@@ -8990,22 +8987,22 @@
         <v>11</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>18</v>
@@ -9040,22 +9037,22 @@
         <v>5</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>18</v>
@@ -9090,22 +9087,22 @@
         <v>109</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E174" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>18</v>
@@ -9139,22 +9136,22 @@
         <v>36</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>18</v>
@@ -9180,22 +9177,22 @@
         <v>37</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H176" s="9" t="s">
         <v>18</v>
@@ -9218,22 +9215,22 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B177" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>18</v>
@@ -9253,22 +9250,22 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B178" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H178" s="9" t="s">
         <v>18</v>
@@ -9279,22 +9276,22 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B179" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H179" s="9" t="s">
         <v>18</v>
@@ -9330,7 +9327,7 @@
         <v>9</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="U179" s="1" t="s">
         <v>20</v>
@@ -9341,22 +9338,22 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B180" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>18</v>
@@ -9400,28 +9397,28 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>43</v>
@@ -9429,22 +9426,22 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B182" s="9" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>18</v>
@@ -9456,22 +9453,22 @@
     <row r="183" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>18</v>
@@ -9507,22 +9504,22 @@
     <row r="184" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H184" s="9" t="s">
         <v>18</v>
@@ -9557,25 +9554,25 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>18</v>
@@ -9610,22 +9607,22 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B186" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>18</v>
@@ -9660,25 +9657,25 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E187" s="15" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F187" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>18</v>
@@ -9710,22 +9707,22 @@
         <v>1</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H188" s="9" t="s">
         <v>18</v>
@@ -9737,7 +9734,7 @@
         <v>4</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="P188" s="1">
         <f>20/100</f>
@@ -9752,22 +9749,22 @@
         <v>2</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>18</v>
@@ -9779,7 +9776,7 @@
         <v>4</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="P189" s="1">
         <f>20/30</f>
@@ -9794,22 +9791,22 @@
         <v>27536</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H190" s="9" t="s">
         <v>18</v>
@@ -9818,7 +9815,7 @@
         <v>19</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.2">
@@ -9826,22 +9823,22 @@
         <v>27555</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>18</v>
@@ -9850,30 +9847,30 @@
         <v>19</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>32</v>
@@ -9903,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="U192" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="V192">
         <v>14</v>
@@ -9916,25 +9913,25 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>32</v>
@@ -9978,25 +9975,25 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>32</v>
@@ -10019,10 +10016,10 @@
       <c r="R194"/>
       <c r="S194"/>
       <c r="T194" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="U194" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="V194">
         <v>2</v>
@@ -10038,22 +10035,22 @@
         <v>16</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>18</v>
@@ -10090,22 +10087,22 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B196" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H196" s="9" t="s">
         <v>18</v>
@@ -10125,22 +10122,22 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B197" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H197" s="9" t="s">
         <v>18</v>
@@ -10161,25 +10158,25 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H198" s="9" t="s">
         <v>32</v>
@@ -10220,25 +10217,25 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H199" s="9" t="s">
         <v>32</v>
@@ -10280,7 +10277,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>28</v>
@@ -10289,16 +10286,16 @@
         <v>29</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>18</v>
@@ -10312,22 +10309,22 @@
         <v>7</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>18</v>
@@ -10360,25 +10357,25 @@
     <row r="202" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I202" t="s">
         <v>19</v>
@@ -10404,7 +10401,7 @@
     </row>
     <row r="203" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>46</v>
@@ -10413,16 +10410,16 @@
         <v>47</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>18</v>
@@ -10460,13 +10457,13 @@
         <v>56</v>
       </c>
       <c r="D204" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E204" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E204" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="F204" s="9" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="G204" s="9" t="s">
         <v>24</v>
@@ -10498,7 +10495,7 @@
     </row>
     <row r="205" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>28</v>
@@ -10507,16 +10504,16 @@
         <v>29</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H205" s="9" t="s">
         <v>18</v>
@@ -10545,7 +10542,7 @@
     </row>
     <row r="206" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>28</v>
@@ -10554,16 +10551,16 @@
         <v>29</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H206" s="9" t="s">
         <v>18</v>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="207" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>28</v>
@@ -10601,16 +10598,16 @@
         <v>29</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H207" s="9" t="s">
         <v>18</v>
@@ -10639,25 +10636,25 @@
     </row>
     <row r="208" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H208" s="9" t="s">
         <v>18</v>
@@ -10702,25 +10699,25 @@
     </row>
     <row r="209" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H209" s="9" t="s">
         <v>18</v>
@@ -10753,28 +10750,28 @@
     </row>
     <row r="210" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>19</v>
@@ -10800,25 +10797,25 @@
     </row>
     <row r="211" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>18</v>
@@ -10855,25 +10852,25 @@
     </row>
     <row r="212" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H212" s="9" t="s">
         <v>18</v>
@@ -10909,7 +10906,7 @@
         <v>7</v>
       </c>
       <c r="T212" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="U212" s="1" t="s">
         <v>20</v>
@@ -10925,25 +10922,25 @@
     </row>
     <row r="213" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H213" s="9" t="s">
         <v>18</v>
@@ -10979,7 +10976,7 @@
         <v>7</v>
       </c>
       <c r="T213" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="U213" s="1" t="s">
         <v>20</v>
@@ -10995,25 +10992,25 @@
     </row>
     <row r="214" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H214" s="9" t="s">
         <v>18</v>
@@ -11049,7 +11046,7 @@
         <v>7</v>
       </c>
       <c r="T214" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="U214" s="1" t="s">
         <v>20</v>
@@ -11068,22 +11065,22 @@
         <v>81</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>18</v>
@@ -11097,19 +11094,19 @@
     </row>
     <row r="216" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F216" s="9" t="s">
         <v>41</v>
@@ -11150,25 +11147,25 @@
     </row>
     <row r="217" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>18</v>
@@ -11207,25 +11204,25 @@
     </row>
     <row r="218" spans="1:27" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>18</v>
@@ -11264,25 +11261,25 @@
     </row>
     <row r="219" spans="1:27" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E219" s="14" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G219" s="14" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>18</v>
@@ -11322,25 +11319,25 @@
     </row>
     <row r="220" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H220" s="9" t="s">
         <v>18</v>
@@ -11378,22 +11375,22 @@
     <row r="221" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H221" s="13" t="s">
         <v>18</v>
@@ -11429,22 +11426,22 @@
     <row r="222" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="13" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H222" s="13" t="s">
         <v>18</v>
@@ -11471,27 +11468,27 @@
       <c r="Z222"/>
       <c r="AA222"/>
     </row>
-    <row r="223" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H223" s="9" t="s">
         <v>32</v>
@@ -11540,25 +11537,25 @@
     </row>
     <row r="224" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H224" s="9" t="s">
         <v>32</v>
@@ -11584,16 +11581,16 @@
         <v>39</v>
       </c>
       <c r="R224" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="S224" s="1">
         <v>39</v>
       </c>
       <c r="T224" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="U224" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="V224" s="1">
         <v>39</v>
@@ -11606,25 +11603,25 @@
     </row>
     <row r="225" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H225" s="9" t="s">
         <v>32</v>
@@ -11646,16 +11643,16 @@
         <v>8</v>
       </c>
       <c r="R225" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="S225" s="1">
         <v>8</v>
       </c>
       <c r="T225" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="U225" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="V225" s="1">
         <v>8</v>
@@ -11668,25 +11665,25 @@
     </row>
     <row r="226" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H226" s="9" t="s">
         <v>32</v>
@@ -11726,16 +11723,16 @@
         <v>47</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H227" s="9" t="s">
         <v>18</v>
@@ -11764,25 +11761,25 @@
     </row>
     <row r="228" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H228" s="9" t="s">
         <v>18</v>
@@ -11819,25 +11816,25 @@
     </row>
     <row r="229" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H229" s="9" t="s">
         <v>18</v>
@@ -11870,25 +11867,25 @@
     </row>
     <row r="230" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H230" s="9" t="s">
         <v>18</v>

--- a/notebooks/RPGRIP1/input/Table_2_Beryozkin.xlsx
+++ b/notebooks/RPGRIP1/input/Table_2_Beryozkin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/RPGRIP1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AA1023-4908-0A4F-81AE-74A79859D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C53B95C-D2F8-2D45-99E1-57D705C0F22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="520" windowWidth="36520" windowHeight="20240" xr2:uid="{5DD6B3E3-C83C-4B8A-9C86-DA99E737D14F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{5DD6B3E3-C83C-4B8A-9C86-DA99E737D14F}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -1479,9 +1479,6 @@
     <t>MOL0358_6</t>
   </si>
   <si>
-    <t>3748+1C&gt;A</t>
-  </si>
-  <si>
     <t>237–523</t>
   </si>
   <si>
@@ -1567,6 +1564,9 @@
   </si>
   <si>
     <t>c.2576_2577insTT</t>
+  </si>
+  <si>
+    <t>c.3748+1C&gt;A</t>
   </si>
 </sst>
 </file>
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E8EE58-8632-4CD9-853F-22D41F15265F}">
   <dimension ref="A1:AA232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2045,31 +2045,31 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>65</v>
@@ -2674,13 +2674,13 @@
         <v>71</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>69</v>
@@ -3248,7 +3248,7 @@
         <v>114</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>18</v>
@@ -3321,7 +3321,7 @@
         <v>116</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>120</v>
@@ -3511,7 +3511,7 @@
         <v>137</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>65</v>
@@ -3546,7 +3546,7 @@
         <v>137</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>65</v>
@@ -5874,7 +5874,7 @@
         <v>220</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>65</v>
@@ -6199,7 +6199,7 @@
         <v>65</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>238</v>
@@ -6237,7 +6237,7 @@
         <v>65</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>238</v>
@@ -8565,13 +8565,13 @@
         <v>71</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>364</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G163" s="9" t="s">
         <v>364</v>
@@ -9282,13 +9282,13 @@
         <v>391</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G179" s="9" t="s">
         <v>65</v>
@@ -9344,13 +9344,13 @@
         <v>391</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>65</v>
@@ -9666,16 +9666,16 @@
         <v>408</v>
       </c>
       <c r="D187" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="E187" s="15" t="s">
         <v>497</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="F187" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>18</v>
@@ -11479,13 +11479,13 @@
         <v>189</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>475</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G223" s="9" t="s">
         <v>475</v>
@@ -11546,13 +11546,13 @@
         <v>189</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E224" s="9" t="s">
         <v>475</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G224" s="9" t="s">
         <v>475</v>
@@ -11612,13 +11612,13 @@
         <v>189</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>475</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G225" s="9" t="s">
         <v>475</v>
@@ -11674,13 +11674,13 @@
         <v>189</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>475</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G226" s="9" t="s">
         <v>475</v>
@@ -11723,13 +11723,13 @@
         <v>47</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="G227" s="9" t="s">
         <v>65</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="228" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>134</v>
@@ -11770,16 +11770,16 @@
         <v>135</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E228" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F228" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F228" s="9" t="s">
-        <v>484</v>
-      </c>
       <c r="G228" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H228" s="9" t="s">
         <v>18</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="229" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>134</v>
@@ -11825,16 +11825,16 @@
         <v>135</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H229" s="9" t="s">
         <v>18</v>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="230" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>74</v>
@@ -11876,16 +11876,16 @@
         <v>75</v>
       </c>
       <c r="D230" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E230" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="E230" s="9" t="s">
-        <v>488</v>
-      </c>
       <c r="F230" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G230" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="G230" s="9" t="s">
-        <v>488</v>
       </c>
       <c r="H230" s="9" t="s">
         <v>18</v>
